--- a/Mail-Sender-App/sourceDataSheet.xlsx
+++ b/Mail-Sender-App/sourceDataSheet.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MahmoudHamdy-LAPTOP\source\repos\Mail-Sender-App\Mail-Sender-App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MahmoudHamdy-LAPTOP\source\repos\Mail-Sender-App6\Mail-Sender-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E914050-73B8-4091-BC5D-64FF3A61241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C66472-62AE-4CCF-8560-66F027D7BB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="15300" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Exported from gridview" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,18 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>fxg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>mahmoudh.morsy@gmail.com</t>
-  </si>
-  <si>
-    <t>haahahha</t>
-  </si>
-  <si>
-    <t>ma7moud.h15@gmail.com</t>
   </si>
   <si>
     <t>Email</t>
@@ -45,67 +36,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>IsSent##?</t>
+    <t>IsSent?</t>
   </si>
   <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F13</t>
-  </si>
-  <si>
-    <t>F14</t>
-  </si>
-  <si>
-    <t>F15</t>
-  </si>
-  <si>
-    <t>F16</t>
-  </si>
-  <si>
-    <t>F17</t>
-  </si>
-  <si>
-    <t>F18</t>
-  </si>
-  <si>
-    <t>F19</t>
-  </si>
-  <si>
-    <t>F20</t>
-  </si>
-  <si>
-    <t>F21</t>
-  </si>
-  <si>
-    <t>F22</t>
-  </si>
-  <si>
-    <t>bb</t>
+    <t>Mahmoud Hamdy</t>
   </si>
 </sst>
 </file>
@@ -146,7 +80,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,9 +101,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -454,110 +388,44 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="4" customWidth="1"/>
-    <col min="4" max="22" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="4" max="22" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{9AEE7A38-BF9A-4DE0-89EB-69CBEE1912FD}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{9172C78C-BDE4-4B98-849B-A84C525C8DAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>